--- a/01.项目启动/3.里程碑事件/青岛清算所项目-里程碑V1.0.xlsx
+++ b/01.项目启动/3.里程碑事件/青岛清算所项目-里程碑V1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/6.项目/1.项目文档/18.清算所项目/3.项目管理资料/01.项目启动/3.里程碑事件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/01.项目启动/3.里程碑事件/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -459,14 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.11.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.10.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.12.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,6 +468,14 @@
   </si>
   <si>
     <t>2017.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +839,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -914,7 +914,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>26</v>
@@ -931,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -948,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -982,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
